--- a/Examples/DCC_pipette.xlsx
+++ b/Examples/DCC_pipette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tesla\Data\MS\4006-03 AI metrologi\Software\DCCtables\master\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E76C76-097B-485C-8043-994E4F5C6223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD667081-F868-4C55-9EDF-BC8C580DE76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="2070" windowWidth="28800" windowHeight="15555" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="1020" windowWidth="34680" windowHeight="14385" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
@@ -23,12 +23,16 @@
     <sheet name="MS120TableC1" sheetId="18" r:id="rId8"/>
     <sheet name="MS600TableC1" sheetId="19" r:id="rId9"/>
     <sheet name="MS1200TableC1" sheetId="20" r:id="rId10"/>
-    <sheet name="Software" sheetId="8" state="hidden" r:id="rId11"/>
-    <sheet name="Locations" sheetId="15" state="hidden" r:id="rId12"/>
+    <sheet name="CalTableC2" sheetId="21" r:id="rId11"/>
+    <sheet name="MS120TableC2" sheetId="22" r:id="rId12"/>
+    <sheet name="MS600TableC2" sheetId="23" r:id="rId13"/>
+    <sheet name="MS1200TableC2" sheetId="24" r:id="rId14"/>
+    <sheet name="Software" sheetId="8" state="hidden" r:id="rId15"/>
+    <sheet name="Locations" sheetId="15" state="hidden" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="ColType" localSheetId="3">[1]Definitions!$A$2:$A$6</definedName>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="595">
   <si>
     <t>customerTag</t>
   </si>
@@ -1567,9 +1571,6 @@
   </si>
   <si>
     <t>Z faktor</t>
-  </si>
-  <si>
-    <t>caltab1</t>
   </si>
   <si>
     <t>p4</t>
@@ -1841,6 +1842,24 @@
   </si>
   <si>
     <t>acc0</t>
+  </si>
+  <si>
+    <t>Calibration result chanel 2</t>
+  </si>
+  <si>
+    <t>Kalibreringsresultat kanal 2</t>
+  </si>
+  <si>
+    <t>Series of measurement channel 2</t>
+  </si>
+  <si>
+    <t>Måleserie kanal 2</t>
+  </si>
+  <si>
+    <t>Emnets vinsning</t>
+  </si>
+  <si>
+    <t>caltab</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1868,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -2048,7 +2067,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -2134,11 +2153,16 @@
     <xf numFmtId="2" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2149,9 +2173,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2185,6 +2206,9 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3230,14 +3254,14 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="heading lang1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="body lang1" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="heading lang2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="body lang2" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="body lang2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table16" displayName="Table16" ref="B1:P6" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table16" displayName="Table16" ref="B1:P6" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B1:P6" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="category"/>
@@ -3261,7 +3285,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H6" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H6" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="swID"/>
@@ -4788,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECBDAAB-B29C-494C-829B-AD152C7EB7EF}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4818,13 +4842,13 @@
         <v>285</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>576</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>577</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -4841,7 +4865,7 @@
         <v>284</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4966,7 +4990,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>495</v>
@@ -4983,7 +5007,7 @@
         <v>366</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>496</v>
@@ -5045,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="12">
         <v>1200</v>
@@ -5062,7 +5086,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="12">
         <v>1200</v>
@@ -5076,10 +5100,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="12">
         <v>1200</v>
@@ -5093,10 +5117,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" s="12">
         <v>1200</v>
@@ -5110,10 +5134,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" s="12">
         <v>1200</v>
@@ -5127,10 +5151,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="12">
         <v>1200</v>
@@ -5144,10 +5168,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C25" s="12">
         <v>1200</v>
@@ -5181,6 +5205,1792 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805529D3-DAA0-488A-8E7B-1E966A045829}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17">
+        <f>COUNTA(B16:B65)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <f>COUNTA(B9:XFD9)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.25">
+      <c r="A14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.25">
+      <c r="A15" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="12">
+        <v>120</v>
+      </c>
+      <c r="D16" s="36">
+        <v>121.0752</v>
+      </c>
+      <c r="E16" s="13">
+        <v>120</v>
+      </c>
+      <c r="F16" s="36">
+        <f>ROUND(D16-E16,2)</f>
+        <v>1.08</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="H16" s="36">
+        <f>ROUND((D16-E16)/C16*100,2)</f>
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="36">
+        <f>ROUND(100*G16/E16,2)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
+      <c r="K16" s="36">
+        <f>ROUND(L16/100*C16,2)</f>
+        <v>0.13</v>
+      </c>
+      <c r="L16" s="36">
+        <f>ROUND(0.1103,2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="M16" s="37">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="12">
+        <v>600</v>
+      </c>
+      <c r="D17" s="36">
+        <v>600.04169999999999</v>
+      </c>
+      <c r="E17" s="13">
+        <v>600</v>
+      </c>
+      <c r="F17" s="36">
+        <f t="shared" ref="F17:F18" si="0">ROUND(D17-E17,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H17" s="36">
+        <f>ROUND((D17-E17)/C17*100,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" ref="I17:I18" si="1">ROUND(100*G17/E17,2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="36">
+        <f t="shared" ref="K17:K18" si="2">ROUND(L17/100*C17,2)</f>
+        <v>0.24</v>
+      </c>
+      <c r="L17" s="36">
+        <f>ROUND(0.0405,2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="M17" s="37">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="36">
+        <v>1198.9010000000001</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F18" s="36">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G18" s="36">
+        <v>2.4</v>
+      </c>
+      <c r="H18" s="36">
+        <f>ROUND((D18-E18)/C18*100,2)</f>
+        <v>-0.09</v>
+      </c>
+      <c r="I18" s="36">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="36">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="L18" s="36">
+        <f>ROUND(0.0457,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M18" s="37">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:N11" xr:uid="{C8AC913F-DBDB-42F2-9091-10FA3658FEFE}">
+      <formula1>MeasurandType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:N9" xr:uid="{AFE7591A-DEA2-4221-B533-8E24F02791EE}">
+      <formula1>ColType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:N10" xr:uid="{3196B670-E487-4F6A-BBF5-AF1EB3D476AA}">
+      <formula1>MetaType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:N13" xr:uid="{9536DBE5-732B-481E-A9F9-EBB1F000BA96}">
+      <formula1>metaDataType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3328CA0F-7AC4-48FC-97D0-E9863E1041B4}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17">
+        <f>COUNTA(B16:B65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <f>COUNTA(B9:XFD9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25">
+      <c r="A14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25">
+      <c r="A15" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="12">
+        <v>120</v>
+      </c>
+      <c r="D16" s="39">
+        <v>121.1925</v>
+      </c>
+      <c r="E16" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="12">
+        <v>120</v>
+      </c>
+      <c r="D17" s="39">
+        <v>120.9919</v>
+      </c>
+      <c r="E17" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="12">
+        <v>120</v>
+      </c>
+      <c r="D18" s="39">
+        <v>121.012</v>
+      </c>
+      <c r="E18" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="12">
+        <v>120</v>
+      </c>
+      <c r="D19" s="39">
+        <v>120.9919</v>
+      </c>
+      <c r="E19" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="12">
+        <v>120</v>
+      </c>
+      <c r="D20" s="39">
+        <v>121.0822</v>
+      </c>
+      <c r="E20" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="12">
+        <v>120</v>
+      </c>
+      <c r="D21" s="39">
+        <v>121.0621</v>
+      </c>
+      <c r="E21" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="12">
+        <v>120</v>
+      </c>
+      <c r="D22" s="39">
+        <v>121.1724</v>
+      </c>
+      <c r="E22" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="12">
+        <v>120</v>
+      </c>
+      <c r="D23" s="39">
+        <v>120.9217</v>
+      </c>
+      <c r="E23" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="12">
+        <v>120</v>
+      </c>
+      <c r="D24" s="39">
+        <v>120.9618</v>
+      </c>
+      <c r="E24" s="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="12">
+        <v>120</v>
+      </c>
+      <c r="D25" s="39">
+        <v>121.363</v>
+      </c>
+      <c r="E25" s="40">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11" xr:uid="{01AD06DC-3FFC-4A8A-8161-EA18594F6E8A}">
+      <formula1>MeasurandType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:E9" xr:uid="{653B703C-DCD7-4C70-8E01-5887CC3F6D44}">
+      <formula1>ColType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:E10" xr:uid="{0AEFB1D6-C28B-47C0-A315-FC161724E231}">
+      <formula1>MetaType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13" xr:uid="{54B95AB2-CAF9-4937-B8C4-BB28F75B2602}">
+      <formula1>metaDataType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED80E0A3-926A-4037-8B60-994A05B458E3}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17">
+        <f>COUNTA(B16:B65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <f>COUNTA(B9:XFD9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25">
+      <c r="A14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25">
+      <c r="A15" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="12">
+        <v>600</v>
+      </c>
+      <c r="D16" s="39">
+        <v>600.17510000000004</v>
+      </c>
+      <c r="E16" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="12">
+        <v>600</v>
+      </c>
+      <c r="D17" s="39">
+        <v>600.16510000000005</v>
+      </c>
+      <c r="E17" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="12">
+        <v>600</v>
+      </c>
+      <c r="D18" s="39">
+        <v>599.53319999999997</v>
+      </c>
+      <c r="E18" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="12">
+        <v>600</v>
+      </c>
+      <c r="D19" s="39">
+        <v>600.23530000000005</v>
+      </c>
+      <c r="E19" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="12">
+        <v>600</v>
+      </c>
+      <c r="D20" s="39">
+        <v>600.09490000000005</v>
+      </c>
+      <c r="E20" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="12">
+        <v>600</v>
+      </c>
+      <c r="D21" s="39">
+        <v>599.80399999999997</v>
+      </c>
+      <c r="E21" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="12">
+        <v>600</v>
+      </c>
+      <c r="D22" s="39">
+        <v>600.01469999999995</v>
+      </c>
+      <c r="E22" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="12">
+        <v>600</v>
+      </c>
+      <c r="D23" s="39">
+        <v>600.10490000000004</v>
+      </c>
+      <c r="E23" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="12">
+        <v>600</v>
+      </c>
+      <c r="D24" s="39">
+        <v>600.38580000000002</v>
+      </c>
+      <c r="E24" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="12">
+        <v>600</v>
+      </c>
+      <c r="D25" s="39">
+        <v>599.90430000000003</v>
+      </c>
+      <c r="E25" s="13">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13" xr:uid="{1CE333EC-A7D7-40E2-8B83-D51B6895D36A}">
+      <formula1>metaDataType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:E10" xr:uid="{D1CA2E34-0924-4B75-9A2B-A5A5BD6C50A4}">
+      <formula1>MetaType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:E9" xr:uid="{280979C4-E98A-42D2-9D39-2FDCA8052FB1}">
+      <formula1>ColType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11" xr:uid="{821FA55F-D62B-48C1-96FF-FA013885AB67}">
+      <formula1>MeasurandType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9553AB8F-1A56-44FC-B103-4B7CFFDCBC12}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17">
+        <f>COUNTA(B16:B65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <f>COUNTA(B9:XFD9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25">
+      <c r="A14" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25">
+      <c r="A15" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1199.4680000000001</v>
+      </c>
+      <c r="E16" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1198.896</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1197.893</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1198.405</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1199.2670000000001</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1199.819</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1198.7550000000001</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1198.9459999999999</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1198.575</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1200</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1198.9860000000001</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11" xr:uid="{FEA4C488-AE1F-4F07-8608-200851D8D6B1}">
+      <formula1>MeasurandType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:E9" xr:uid="{40B8639E-22E1-4B78-94BF-3776C679DE2C}">
+      <formula1>ColType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:E10" xr:uid="{915B526C-7888-4878-B07F-FDC7F3B6B2C1}">
+      <formula1>MetaType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13" xr:uid="{1271C8A1-48F3-415B-86A4-6284A96FEBE1}">
+      <formula1>metaDataType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1"/>
@@ -5236,7 +7046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -5606,7 +7416,7 @@
         <v>390</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E10" t="s">
         <v>452</v>
@@ -6135,13 +7945,13 @@
         <v>326</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>327</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
@@ -6152,19 +7962,19 @@
         <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>515</v>
-      </c>
       <c r="F6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="90">
@@ -6175,19 +7985,19 @@
         <v>300</v>
       </c>
       <c r="C7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" t="s">
         <v>517</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="F7" t="s">
         <v>518</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="F7" t="s">
-        <v>519</v>
-      </c>
       <c r="G7" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6198,19 +8008,19 @@
         <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D8" t="s">
         <v>499</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60">
@@ -6221,19 +8031,19 @@
         <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="F9" t="s">
         <v>528</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="24" t="s">
         <v>529</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6244,19 +8054,19 @@
         <v>300</v>
       </c>
       <c r="C10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F10" t="s">
         <v>563</v>
       </c>
-      <c r="D10" t="s">
-        <v>568</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="F10" t="s">
-        <v>564</v>
-      </c>
       <c r="G10" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6267,19 +8077,19 @@
         <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6290,19 +8100,19 @@
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D12" t="s">
+        <v>568</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" t="s">
+        <v>563</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>569</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="F12" t="s">
-        <v>564</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6393,7 +8203,7 @@
         <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s">
         <v>484</v>
@@ -6413,7 +8223,7 @@
         <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
         <v>484</v>
@@ -6433,7 +8243,7 @@
         <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C4" t="s">
         <v>484</v>
@@ -6453,22 +8263,22 @@
         <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F5" t="s">
         <v>557</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>546</v>
-      </c>
-      <c r="F5" t="s">
-        <v>558</v>
-      </c>
-      <c r="G5" t="s">
-        <v>547</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>43</v>
@@ -6479,22 +8289,22 @@
         <v>345</v>
       </c>
       <c r="B6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" t="s">
         <v>543</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E6" t="s">
         <v>544</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>557</v>
       </c>
-      <c r="E6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F6" t="s">
-        <v>558</v>
-      </c>
       <c r="G6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>43</v>
@@ -6555,7 +8365,7 @@
         <v>345</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -6567,7 +8377,7 @@
         <v>490</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>486</v>
@@ -6760,28 +8570,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E4" t="s">
         <v>532</v>
-      </c>
-      <c r="D4" t="s">
-        <v>534</v>
-      </c>
-      <c r="E4" t="s">
-        <v>533</v>
       </c>
       <c r="F4" t="s">
         <v>478</v>
       </c>
       <c r="I4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J4" t="s">
         <v>357</v>
       </c>
       <c r="K4" t="s">
+        <v>535</v>
+      </c>
+      <c r="L4" t="s">
         <v>536</v>
-      </c>
-      <c r="L4" t="s">
-        <v>537</v>
       </c>
       <c r="M4" s="18" t="s">
         <v>331</v>
@@ -6817,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6847,21 +8657,21 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>501</v>
+        <v>594</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -6880,7 +8690,7 @@
         <v>284</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -7064,19 +8874,19 @@
         <v>492</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="J12" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="J12" s="38" t="s">
         <v>331</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>492</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>212</v>
@@ -7146,31 +8956,31 @@
         <v>495</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>497</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>499</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="23.25">
@@ -7190,31 +9000,31 @@
         <v>496</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>498</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>555</v>
-      </c>
       <c r="L15" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>500</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -7263,7 +9073,7 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -7312,7 +9122,7 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -7361,7 +9171,7 @@
         <v>1.0029999999999999</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -7416,10 +9226,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6EC13F-9E4E-4223-87EA-CF43A770EB83}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7428,9 +9238,10 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7441,21 +9252,21 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="37.5" customHeight="1">
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
         <v>283</v>
       </c>
@@ -7463,23 +9274,23 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="17" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
@@ -7488,16 +9299,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="17">
         <f>COUNTA(B9:XFD9)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -7510,8 +9321,11 @@
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -7524,8 +9338,11 @@
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -7538,8 +9355,11 @@
       <c r="D11" s="7" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -7552,8 +9372,11 @@
       <c r="D12" s="10" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="26" t="s">
         <v>306</v>
       </c>
@@ -7566,8 +9389,11 @@
       <c r="D13" s="25" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="23.25">
+      <c r="E13" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25">
       <c r="A14" s="14" t="s">
         <v>364</v>
       </c>
@@ -7578,10 +9404,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="23.25">
+        <v>573</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25">
       <c r="A15" s="14" t="s">
         <v>365</v>
       </c>
@@ -7592,10 +9421,13 @@
         <v>366</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>574</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -7608,8 +9440,11 @@
       <c r="D16" s="12">
         <v>121.3229</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -7622,8 +9457,11 @@
       <c r="D17" s="12">
         <v>121.1223</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -7636,13 +9474,16 @@
       <c r="D18" s="12">
         <v>121.1724</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="12">
         <v>120</v>
@@ -7650,13 +9491,16 @@
       <c r="D19" s="12">
         <v>121.1022</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="12">
         <v>120</v>
@@ -7664,13 +9508,16 @@
       <c r="D20" s="12">
         <v>121.2025</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="12">
         <v>120</v>
@@ -7678,13 +9525,16 @@
       <c r="D21" s="12">
         <v>121.1825</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" s="12">
         <v>120</v>
@@ -7692,13 +9542,16 @@
       <c r="D22" s="12">
         <v>121.3129</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" s="12">
         <v>120</v>
@@ -7706,13 +9559,16 @@
       <c r="D23" s="12">
         <v>121.042</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="12">
         <v>120</v>
@@ -7720,35 +9576,41 @@
       <c r="D24" s="12">
         <v>121.1724</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C25" s="12">
         <v>120</v>
       </c>
       <c r="D25" s="12">
         <v>121.5034</v>
+      </c>
+      <c r="E25" s="12">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13" xr:uid="{74C933D7-F261-465B-9CB3-FBF15F00F07D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13" xr:uid="{74C933D7-F261-465B-9CB3-FBF15F00F07D}">
       <formula1>metaDataType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:D10" xr:uid="{0431CF4D-36CD-43BC-B925-DD305559A7BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:E10" xr:uid="{0431CF4D-36CD-43BC-B925-DD305559A7BD}">
       <formula1>MetaType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:D9" xr:uid="{06F27C47-9EDF-4ED9-84FE-EC70B726D342}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:E9" xr:uid="{06F27C47-9EDF-4ED9-84FE-EC70B726D342}">
       <formula1>ColType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:D11" xr:uid="{1D891321-DC06-4174-910D-C989B287824F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:E11" xr:uid="{1D891321-DC06-4174-910D-C989B287824F}">
       <formula1>MeasurandType</formula1>
     </dataValidation>
   </dataValidations>
@@ -7762,7 +9624,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7791,13 +9653,13 @@
         <v>285</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>576</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>577</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -7814,7 +9676,7 @@
         <v>284</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7939,7 +9801,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>495</v>
@@ -7956,7 +9818,7 @@
         <v>366</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>496</v>
@@ -8018,7 +9880,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C19" s="12">
         <v>600</v>
@@ -8035,7 +9897,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="12">
         <v>600</v>
@@ -8049,10 +9911,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="12">
         <v>600</v>
@@ -8066,10 +9928,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C22" s="12">
         <v>600</v>
@@ -8083,10 +9945,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C23" s="12">
         <v>600</v>
@@ -8100,10 +9962,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C24" s="12">
         <v>600</v>
@@ -8117,10 +9979,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C25" s="12">
         <v>600</v>
